--- a/LAB5_Fedirko_Yaroslav/LAB5_Fedirko_Yaroslav.xlsx
+++ b/LAB5_Fedirko_Yaroslav/LAB5_Fedirko_Yaroslav.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Номер вимоги</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Дії</t>
   </si>
@@ -145,22 +142,32 @@
 3. Кнопка страрту має містити вираз рожиці із мертвим обличчям.
 4. Кнопка страрту має містити вираз рожиці із помішкою в чорних окулярах</t>
   </si>
+  <si>
+    <t>Ідентифікатор</t>
+  </si>
+  <si>
+    <t>Вимога</t>
+  </si>
+  <si>
+    <t>GUI-10</t>
+  </si>
+  <si>
+    <t>GUI-15</t>
+  </si>
+  <si>
+    <t>GUI-20</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
     </font>
     <font>
       <sz val="12"/>
@@ -182,6 +189,20 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -198,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -207,54 +228,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -262,22 +246,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,62 +482,77 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.77734375" customWidth="1"/>
-    <col min="2" max="2" width="41.88671875" customWidth="1"/>
-    <col min="3" max="3" width="74" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" customWidth="1"/>
+    <col min="4" max="4" width="74" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="3" spans="1:4" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="B3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:3" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
+    <row r="4" spans="1:4" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>